--- a/Documents/Project Timeline.xlsx
+++ b/Documents/Project Timeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\New User\Desktop\Fourth Year\Usability_Testing_FYP\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9898F0F3-0905-481C-ABFF-F87665B3F603}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6C67FF7-4E7D-42D3-94A4-BD8C09CF7FE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Project Timeline" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -175,11 +176,18 @@
     <numFmt numFmtId="164" formatCode="m/d/yy"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="33">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Corbel"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1223,49 +1231,46 @@
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="174">
+  <cellXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1274,476 +1279,482 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="23" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="23" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="24" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="24" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="24" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="27" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="27" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="27" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="18" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="18" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="19" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="19" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="27" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="27" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="27" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="35" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="35" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="29" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="30" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="31" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="46" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="47" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="49" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="24" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="26" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="26" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="26" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="57" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="57" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="5" borderId="58" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="5" borderId="59" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="5" borderId="60" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="5" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="5" borderId="14" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="5" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="11" borderId="6" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="6" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="5" borderId="39" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="2" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="11" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="23" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="6" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="6" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="18" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="18" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="18" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="18" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="19" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="19" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="23" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="23" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="24" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="24" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="24" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="26" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="26" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="26" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="6" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="6" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="44" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="45" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="48" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="50" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="36" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="47" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="36" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="32" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="35" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="35" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="35" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="29" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="30" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="31" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="46" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="47" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="49" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="23" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="23" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="24" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="24" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="24" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="5" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="5" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="23" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="23" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="57" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="57" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="5" borderId="58" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="5" borderId="59" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="5" borderId="60" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="5" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="5" borderId="14" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="5" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="11" borderId="6" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="6" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="5" borderId="39" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="23" fillId="2" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="23" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="36" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="36" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="36" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="44" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="45" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="47" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="36" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="48" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="50" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="11" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -2073,8 +2084,8 @@
   </sheetPr>
   <dimension ref="A1:AQ40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L41" sqref="L41"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="15" customHeight="1"/>
@@ -2090,17 +2101,17 @@
   <sheetData>
     <row r="1" spans="1:43" ht="21" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="71"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="62"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
-      <c r="L1" s="70"/>
+      <c r="L1" s="61"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -2129,58 +2140,58 @@
       <c r="AL1" s="1"/>
     </row>
     <row r="2" spans="1:43" ht="21" customHeight="1" thickBot="1">
-      <c r="A2" s="70"/>
-      <c r="B2" s="102" t="s">
+      <c r="A2" s="61"/>
+      <c r="B2" s="160" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="68"/>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="68"/>
-      <c r="S2" s="68"/>
-      <c r="T2" s="68"/>
-      <c r="U2" s="68"/>
-      <c r="V2" s="68"/>
-      <c r="W2" s="68"/>
-      <c r="X2" s="68"/>
-      <c r="Y2" s="68"/>
-      <c r="Z2" s="68"/>
-      <c r="AA2" s="68"/>
-      <c r="AB2" s="68"/>
-      <c r="AC2" s="68"/>
-      <c r="AD2" s="68"/>
-      <c r="AE2" s="68"/>
-      <c r="AF2" s="68"/>
-      <c r="AG2" s="68"/>
-      <c r="AH2" s="68"/>
-      <c r="AI2" s="68"/>
-      <c r="AJ2" s="68"/>
-      <c r="AK2" s="68"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="161"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="59"/>
+      <c r="AA2" s="59"/>
+      <c r="AB2" s="59"/>
+      <c r="AC2" s="59"/>
+      <c r="AD2" s="59"/>
+      <c r="AE2" s="59"/>
+      <c r="AF2" s="59"/>
+      <c r="AG2" s="59"/>
+      <c r="AH2" s="59"/>
+      <c r="AI2" s="59"/>
+      <c r="AJ2" s="59"/>
+      <c r="AK2" s="59"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:43" ht="21" customHeight="1" thickTop="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="88"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -2213,31 +2224,31 @@
     <row r="4" spans="1:43" ht="21" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="66" t="s">
+      <c r="C4" s="82"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="146" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="21">
+      <c r="G4" s="147"/>
+      <c r="H4" s="147"/>
+      <c r="I4" s="147"/>
+      <c r="J4" s="147"/>
+      <c r="K4" s="147"/>
+      <c r="L4" s="148"/>
+      <c r="M4" s="149">
         <v>44175</v>
       </c>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="20"/>
+      <c r="N4" s="148"/>
+      <c r="O4" s="148"/>
+      <c r="P4" s="148"/>
+      <c r="Q4" s="148"/>
+      <c r="R4" s="148"/>
+      <c r="S4" s="148"/>
+      <c r="T4" s="148"/>
+      <c r="U4" s="148"/>
+      <c r="V4" s="148"/>
+      <c r="W4" s="148"/>
       <c r="X4" s="5"/>
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
@@ -2258,15 +2269,15 @@
     <row r="5" spans="1:43" ht="21" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="95"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="85"/>
       <c r="E5" s="6"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
       <c r="X5" s="5"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
@@ -2290,103 +2301,103 @@
         <v>2</v>
       </c>
       <c r="C6" s="8"/>
-      <c r="D6" s="90" t="s">
+      <c r="D6" s="174" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="90"/>
-      <c r="F6" s="39" t="s">
+      <c r="E6" s="174"/>
+      <c r="F6" s="156" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="39"/>
-      <c r="S6" s="39"/>
-      <c r="T6" s="39"/>
-      <c r="U6" s="115" t="s">
+      <c r="G6" s="156"/>
+      <c r="H6" s="156"/>
+      <c r="I6" s="156"/>
+      <c r="J6" s="156"/>
+      <c r="K6" s="156"/>
+      <c r="L6" s="156"/>
+      <c r="M6" s="156"/>
+      <c r="N6" s="156"/>
+      <c r="O6" s="156"/>
+      <c r="P6" s="156"/>
+      <c r="Q6" s="156"/>
+      <c r="R6" s="156"/>
+      <c r="S6" s="156"/>
+      <c r="T6" s="156"/>
+      <c r="U6" s="157" t="s">
         <v>5</v>
       </c>
-      <c r="V6" s="39"/>
-      <c r="W6" s="39"/>
-      <c r="X6" s="39"/>
-      <c r="Y6" s="39"/>
-      <c r="Z6" s="39"/>
-      <c r="AA6" s="39"/>
-      <c r="AB6" s="39"/>
-      <c r="AC6" s="39"/>
-      <c r="AD6" s="39"/>
-      <c r="AE6" s="39"/>
-      <c r="AF6" s="39"/>
-      <c r="AG6" s="39"/>
-      <c r="AH6" s="39"/>
-      <c r="AI6" s="39"/>
-      <c r="AJ6" s="39"/>
-      <c r="AK6" s="39"/>
+      <c r="V6" s="156"/>
+      <c r="W6" s="156"/>
+      <c r="X6" s="156"/>
+      <c r="Y6" s="156"/>
+      <c r="Z6" s="156"/>
+      <c r="AA6" s="156"/>
+      <c r="AB6" s="156"/>
+      <c r="AC6" s="156"/>
+      <c r="AD6" s="156"/>
+      <c r="AE6" s="156"/>
+      <c r="AF6" s="156"/>
+      <c r="AG6" s="156"/>
+      <c r="AH6" s="156"/>
+      <c r="AI6" s="156"/>
+      <c r="AJ6" s="156"/>
+      <c r="AK6" s="156"/>
       <c r="AL6" s="13"/>
       <c r="AM6" s="13"/>
     </row>
     <row r="7" spans="1:43" ht="21" customHeight="1">
       <c r="A7" s="10"/>
-      <c r="B7" s="108"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="58" t="s">
+      <c r="B7" s="92"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="153" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="96"/>
-      <c r="H7" s="60" t="s">
+      <c r="G7" s="154"/>
+      <c r="H7" s="155" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="97" t="s">
+      <c r="I7" s="155"/>
+      <c r="J7" s="155"/>
+      <c r="K7" s="155"/>
+      <c r="L7" s="150" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="61"/>
-      <c r="N7" s="61"/>
-      <c r="O7" s="61"/>
-      <c r="P7" s="98"/>
-      <c r="Q7" s="60" t="s">
+      <c r="M7" s="151"/>
+      <c r="N7" s="151"/>
+      <c r="O7" s="151"/>
+      <c r="P7" s="152"/>
+      <c r="Q7" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="R7" s="60"/>
-      <c r="S7" s="60"/>
-      <c r="T7" s="60"/>
-      <c r="U7" s="97" t="s">
+      <c r="R7" s="155"/>
+      <c r="S7" s="155"/>
+      <c r="T7" s="155"/>
+      <c r="U7" s="150" t="s">
         <v>9</v>
       </c>
-      <c r="V7" s="61"/>
-      <c r="W7" s="61"/>
-      <c r="X7" s="98"/>
-      <c r="Y7" s="60" t="s">
+      <c r="V7" s="151"/>
+      <c r="W7" s="151"/>
+      <c r="X7" s="152"/>
+      <c r="Y7" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="Z7" s="60"/>
-      <c r="AA7" s="60"/>
-      <c r="AB7" s="60"/>
-      <c r="AC7" s="97" t="s">
+      <c r="Z7" s="155"/>
+      <c r="AA7" s="155"/>
+      <c r="AB7" s="155"/>
+      <c r="AC7" s="150" t="s">
         <v>11</v>
       </c>
-      <c r="AD7" s="61"/>
-      <c r="AE7" s="61"/>
-      <c r="AF7" s="61"/>
-      <c r="AG7" s="98"/>
-      <c r="AH7" s="59" t="s">
+      <c r="AD7" s="151"/>
+      <c r="AE7" s="151"/>
+      <c r="AF7" s="151"/>
+      <c r="AG7" s="152"/>
+      <c r="AH7" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="AI7" s="60"/>
-      <c r="AJ7" s="60"/>
-      <c r="AK7" s="99"/>
+      <c r="AI7" s="155"/>
+      <c r="AJ7" s="155"/>
+      <c r="AK7" s="159"/>
       <c r="AL7" s="13"/>
       <c r="AM7" s="13"/>
       <c r="AP7" s="10"/>
@@ -2394,104 +2405,104 @@
     </row>
     <row r="8" spans="1:43" ht="21" customHeight="1">
       <c r="A8" s="10"/>
-      <c r="B8" s="109"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="73">
+      <c r="B8" s="93"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="64">
         <v>21</v>
       </c>
-      <c r="G8" s="62">
+      <c r="G8" s="54">
         <v>28</v>
       </c>
-      <c r="H8" s="63">
+      <c r="H8" s="55">
         <v>5</v>
       </c>
-      <c r="I8" s="63">
+      <c r="I8" s="55">
         <v>12</v>
       </c>
-      <c r="J8" s="63">
+      <c r="J8" s="55">
         <v>19</v>
       </c>
-      <c r="K8" s="63">
+      <c r="K8" s="55">
         <v>26</v>
       </c>
-      <c r="L8" s="62">
+      <c r="L8" s="54">
         <v>2</v>
       </c>
-      <c r="M8" s="62">
+      <c r="M8" s="54">
         <v>9</v>
       </c>
-      <c r="N8" s="62">
+      <c r="N8" s="54">
         <v>16</v>
       </c>
-      <c r="O8" s="62">
+      <c r="O8" s="54">
         <v>23</v>
       </c>
-      <c r="P8" s="62">
+      <c r="P8" s="54">
         <v>30</v>
       </c>
-      <c r="Q8" s="63">
+      <c r="Q8" s="55">
         <v>7</v>
       </c>
-      <c r="R8" s="63">
+      <c r="R8" s="55">
         <v>14</v>
       </c>
-      <c r="S8" s="63">
+      <c r="S8" s="55">
         <v>21</v>
       </c>
-      <c r="T8" s="63">
+      <c r="T8" s="55">
         <v>28</v>
       </c>
-      <c r="U8" s="62">
+      <c r="U8" s="54">
         <v>4</v>
       </c>
-      <c r="V8" s="62">
+      <c r="V8" s="54">
         <v>11</v>
       </c>
-      <c r="W8" s="62">
+      <c r="W8" s="54">
         <v>18</v>
       </c>
-      <c r="X8" s="62">
+      <c r="X8" s="54">
         <v>25</v>
       </c>
-      <c r="Y8" s="63">
+      <c r="Y8" s="55">
         <v>1</v>
       </c>
-      <c r="Z8" s="63">
+      <c r="Z8" s="55">
         <v>8</v>
       </c>
-      <c r="AA8" s="63">
+      <c r="AA8" s="55">
         <v>15</v>
       </c>
-      <c r="AB8" s="63">
+      <c r="AB8" s="55">
         <v>22</v>
       </c>
-      <c r="AC8" s="62">
+      <c r="AC8" s="54">
         <v>1</v>
       </c>
-      <c r="AD8" s="62">
+      <c r="AD8" s="54">
         <v>8</v>
       </c>
-      <c r="AE8" s="62">
+      <c r="AE8" s="54">
         <v>15</v>
       </c>
-      <c r="AF8" s="62">
+      <c r="AF8" s="54">
         <v>22</v>
       </c>
-      <c r="AG8" s="62">
+      <c r="AG8" s="54">
         <v>29</v>
       </c>
-      <c r="AH8" s="63">
+      <c r="AH8" s="55">
         <v>5</v>
       </c>
-      <c r="AI8" s="63">
+      <c r="AI8" s="55">
         <v>12</v>
       </c>
-      <c r="AJ8" s="63">
+      <c r="AJ8" s="55">
         <v>19</v>
       </c>
-      <c r="AK8" s="63">
+      <c r="AK8" s="55">
         <v>26</v>
       </c>
       <c r="AL8" s="13"/>
@@ -2499,924 +2510,924 @@
     </row>
     <row r="9" spans="1:43" ht="21" customHeight="1" thickBot="1">
       <c r="A9" s="11"/>
-      <c r="B9" s="110"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="101"/>
-      <c r="F9" s="74" t="s">
+      <c r="B9" s="94"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="64" t="s">
+      <c r="G9" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="135" t="s">
+      <c r="H9" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="135" t="s">
+      <c r="I9" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="135" t="s">
+      <c r="J9" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="65" t="s">
+      <c r="K9" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="L9" s="136" t="s">
+      <c r="L9" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="M9" s="136" t="s">
+      <c r="M9" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="N9" s="64" t="s">
+      <c r="N9" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="O9" s="64" t="s">
+      <c r="O9" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="P9" s="64" t="s">
+      <c r="P9" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="Q9" s="65" t="s">
+      <c r="Q9" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="R9" s="65" t="s">
+      <c r="R9" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="S9" s="65"/>
-      <c r="T9" s="65"/>
-      <c r="U9" s="64"/>
-      <c r="V9" s="64"/>
-      <c r="W9" s="64"/>
-      <c r="X9" s="64"/>
-      <c r="Y9" s="65"/>
-      <c r="Z9" s="65"/>
-      <c r="AA9" s="65"/>
-      <c r="AB9" s="65"/>
-      <c r="AC9" s="64"/>
-      <c r="AD9" s="64"/>
-      <c r="AE9" s="64"/>
-      <c r="AF9" s="64"/>
-      <c r="AG9" s="64"/>
-      <c r="AH9" s="65"/>
-      <c r="AI9" s="65"/>
-      <c r="AJ9" s="65"/>
-      <c r="AK9" s="65"/>
+      <c r="S9" s="57"/>
+      <c r="T9" s="57"/>
+      <c r="U9" s="56"/>
+      <c r="V9" s="56"/>
+      <c r="W9" s="56"/>
+      <c r="X9" s="56"/>
+      <c r="Y9" s="57"/>
+      <c r="Z9" s="57"/>
+      <c r="AA9" s="57"/>
+      <c r="AB9" s="57"/>
+      <c r="AC9" s="56"/>
+      <c r="AD9" s="56"/>
+      <c r="AE9" s="56"/>
+      <c r="AF9" s="56"/>
+      <c r="AG9" s="56"/>
+      <c r="AH9" s="57"/>
+      <c r="AI9" s="57"/>
+      <c r="AJ9" s="57"/>
+      <c r="AK9" s="57"/>
       <c r="AL9" s="13"/>
       <c r="AM9" s="13"/>
     </row>
     <row r="10" spans="1:43" ht="21" customHeight="1" thickBot="1">
       <c r="A10" s="12"/>
-      <c r="B10" s="130" t="s">
+      <c r="B10" s="141" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="105"/>
-      <c r="D10" s="161" t="s">
+      <c r="C10" s="89"/>
+      <c r="D10" s="172" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="162"/>
-      <c r="F10" s="141"/>
-      <c r="G10" s="142"/>
-      <c r="H10" s="142"/>
-      <c r="I10" s="143"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="156"/>
-      <c r="M10" s="152"/>
-      <c r="N10" s="157"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="24"/>
-      <c r="T10" s="50"/>
-      <c r="U10" s="42"/>
-      <c r="V10" s="24"/>
-      <c r="W10" s="24"/>
-      <c r="X10" s="24"/>
-      <c r="Y10" s="24"/>
-      <c r="Z10" s="24"/>
-      <c r="AA10" s="24"/>
-      <c r="AB10" s="24"/>
-      <c r="AC10" s="24"/>
-      <c r="AD10" s="24"/>
-      <c r="AE10" s="24"/>
-      <c r="AF10" s="24"/>
-      <c r="AG10" s="24"/>
-      <c r="AH10" s="24"/>
-      <c r="AI10" s="24"/>
-      <c r="AJ10" s="24"/>
-      <c r="AK10" s="24"/>
+      <c r="E10" s="173"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="120"/>
+      <c r="H10" s="120"/>
+      <c r="I10" s="121"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="134"/>
+      <c r="M10" s="130"/>
+      <c r="N10" s="135"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="46"/>
+      <c r="U10" s="38"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="22"/>
+      <c r="X10" s="22"/>
+      <c r="Y10" s="22"/>
+      <c r="Z10" s="22"/>
+      <c r="AA10" s="22"/>
+      <c r="AB10" s="22"/>
+      <c r="AC10" s="22"/>
+      <c r="AD10" s="22"/>
+      <c r="AE10" s="22"/>
+      <c r="AF10" s="22"/>
+      <c r="AG10" s="22"/>
+      <c r="AH10" s="22"/>
+      <c r="AI10" s="22"/>
+      <c r="AJ10" s="22"/>
+      <c r="AK10" s="22"/>
       <c r="AL10" s="13"/>
       <c r="AM10" s="13"/>
     </row>
     <row r="11" spans="1:43" ht="21" customHeight="1" thickBot="1">
       <c r="A11" s="12"/>
-      <c r="B11" s="130"/>
-      <c r="C11" s="104"/>
-      <c r="D11" s="161" t="s">
+      <c r="B11" s="141"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="172" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="162"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="133"/>
-      <c r="H11" s="137"/>
-      <c r="I11" s="138"/>
-      <c r="J11" s="139"/>
-      <c r="K11" s="134"/>
-      <c r="L11" s="153"/>
-      <c r="M11" s="154"/>
-      <c r="N11" s="77"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="49"/>
-      <c r="U11" s="42"/>
-      <c r="V11" s="23"/>
-      <c r="W11" s="23"/>
-      <c r="X11" s="23"/>
-      <c r="Y11" s="23"/>
-      <c r="Z11" s="23"/>
-      <c r="AA11" s="23"/>
-      <c r="AB11" s="23"/>
-      <c r="AC11" s="23"/>
-      <c r="AD11" s="23"/>
-      <c r="AE11" s="23"/>
-      <c r="AF11" s="23"/>
-      <c r="AG11" s="23"/>
-      <c r="AH11" s="23"/>
-      <c r="AI11" s="23"/>
-      <c r="AJ11" s="23"/>
-      <c r="AK11" s="23"/>
+      <c r="E11" s="173"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="111"/>
+      <c r="H11" s="115"/>
+      <c r="I11" s="116"/>
+      <c r="J11" s="117"/>
+      <c r="K11" s="112"/>
+      <c r="L11" s="131"/>
+      <c r="M11" s="132"/>
+      <c r="N11" s="68"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="45"/>
+      <c r="U11" s="38"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="21"/>
+      <c r="Y11" s="21"/>
+      <c r="Z11" s="21"/>
+      <c r="AA11" s="21"/>
+      <c r="AB11" s="21"/>
+      <c r="AC11" s="21"/>
+      <c r="AD11" s="21"/>
+      <c r="AE11" s="21"/>
+      <c r="AF11" s="21"/>
+      <c r="AG11" s="21"/>
+      <c r="AH11" s="21"/>
+      <c r="AI11" s="21"/>
+      <c r="AJ11" s="21"/>
+      <c r="AK11" s="21"/>
       <c r="AL11" s="13"/>
       <c r="AM11" s="13"/>
     </row>
     <row r="12" spans="1:43" ht="21" customHeight="1" thickBot="1">
       <c r="A12" s="12"/>
-      <c r="B12" s="130"/>
-      <c r="C12" s="105"/>
-      <c r="D12" s="161" t="s">
+      <c r="B12" s="141"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="172" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="162"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="140"/>
-      <c r="I12" s="140"/>
-      <c r="J12" s="140"/>
-      <c r="K12" s="140"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="155"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="49"/>
-      <c r="U12" s="42"/>
-      <c r="V12" s="23"/>
-      <c r="W12" s="23"/>
-      <c r="X12" s="23"/>
-      <c r="Y12" s="23"/>
-      <c r="Z12" s="23"/>
-      <c r="AA12" s="23"/>
-      <c r="AB12" s="23"/>
-      <c r="AC12" s="23"/>
-      <c r="AD12" s="23"/>
-      <c r="AE12" s="23"/>
-      <c r="AF12" s="23"/>
-      <c r="AG12" s="23"/>
-      <c r="AH12" s="23"/>
-      <c r="AI12" s="23"/>
-      <c r="AJ12" s="23"/>
-      <c r="AK12" s="23"/>
+      <c r="E12" s="173"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="118"/>
+      <c r="I12" s="118"/>
+      <c r="J12" s="118"/>
+      <c r="K12" s="118"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="133"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="45"/>
+      <c r="U12" s="38"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="21"/>
+      <c r="X12" s="21"/>
+      <c r="Y12" s="21"/>
+      <c r="Z12" s="21"/>
+      <c r="AA12" s="21"/>
+      <c r="AB12" s="21"/>
+      <c r="AC12" s="21"/>
+      <c r="AD12" s="21"/>
+      <c r="AE12" s="21"/>
+      <c r="AF12" s="21"/>
+      <c r="AG12" s="21"/>
+      <c r="AH12" s="21"/>
+      <c r="AI12" s="21"/>
+      <c r="AJ12" s="21"/>
+      <c r="AK12" s="21"/>
       <c r="AL12" s="13"/>
       <c r="AM12" s="13"/>
     </row>
     <row r="13" spans="1:43" ht="21" customHeight="1" thickBot="1">
       <c r="A13" s="12"/>
-      <c r="B13" s="130"/>
-      <c r="C13" s="105"/>
-      <c r="D13" s="132" t="s">
+      <c r="B13" s="141"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="110" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="163"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="140"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="133"/>
-      <c r="M13" s="154"/>
-      <c r="N13" s="77"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="49"/>
-      <c r="U13" s="42"/>
-      <c r="V13" s="23"/>
-      <c r="W13" s="23"/>
-      <c r="X13" s="23"/>
-      <c r="Y13" s="23"/>
-      <c r="Z13" s="23"/>
-      <c r="AA13" s="23"/>
-      <c r="AB13" s="23"/>
-      <c r="AC13" s="23"/>
-      <c r="AD13" s="23"/>
-      <c r="AE13" s="23"/>
-      <c r="AF13" s="23"/>
-      <c r="AG13" s="23"/>
-      <c r="AH13" s="23"/>
-      <c r="AI13" s="23"/>
-      <c r="AJ13" s="23"/>
-      <c r="AK13" s="23"/>
+      <c r="E13" s="137"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="118"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="111"/>
+      <c r="M13" s="132"/>
+      <c r="N13" s="68"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="45"/>
+      <c r="U13" s="38"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="21"/>
+      <c r="AB13" s="21"/>
+      <c r="AC13" s="21"/>
+      <c r="AD13" s="21"/>
+      <c r="AE13" s="21"/>
+      <c r="AF13" s="21"/>
+      <c r="AG13" s="21"/>
+      <c r="AH13" s="21"/>
+      <c r="AI13" s="21"/>
+      <c r="AJ13" s="21"/>
+      <c r="AK13" s="21"/>
       <c r="AL13" s="13"/>
       <c r="AM13" s="13"/>
     </row>
     <row r="14" spans="1:43" ht="21" customHeight="1" thickBot="1">
       <c r="A14" s="9"/>
-      <c r="B14" s="131"/>
-      <c r="C14" s="105"/>
-      <c r="D14" s="161" t="s">
+      <c r="B14" s="142"/>
+      <c r="C14" s="89"/>
+      <c r="D14" s="172" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="162"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="140"/>
-      <c r="J14" s="140"/>
-      <c r="K14" s="140"/>
-      <c r="L14" s="133"/>
-      <c r="M14" s="154"/>
-      <c r="N14" s="77"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="49"/>
-      <c r="U14" s="42"/>
-      <c r="V14" s="23"/>
-      <c r="W14" s="23"/>
-      <c r="X14" s="23"/>
-      <c r="Y14" s="23"/>
-      <c r="Z14" s="23"/>
-      <c r="AA14" s="23"/>
-      <c r="AB14" s="23"/>
-      <c r="AC14" s="23"/>
-      <c r="AD14" s="23"/>
-      <c r="AE14" s="23"/>
-      <c r="AF14" s="23"/>
-      <c r="AG14" s="23"/>
-      <c r="AH14" s="23"/>
-      <c r="AI14" s="23"/>
-      <c r="AJ14" s="23"/>
-      <c r="AK14" s="23"/>
+      <c r="E14" s="173"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="118"/>
+      <c r="J14" s="118"/>
+      <c r="K14" s="118"/>
+      <c r="L14" s="111"/>
+      <c r="M14" s="132"/>
+      <c r="N14" s="68"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="45"/>
+      <c r="U14" s="38"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="21"/>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="21"/>
+      <c r="AC14" s="21"/>
+      <c r="AD14" s="21"/>
+      <c r="AE14" s="21"/>
+      <c r="AF14" s="21"/>
+      <c r="AG14" s="21"/>
+      <c r="AH14" s="21"/>
+      <c r="AI14" s="21"/>
+      <c r="AJ14" s="21"/>
+      <c r="AK14" s="21"/>
       <c r="AL14" s="13"/>
       <c r="AM14" s="13"/>
     </row>
     <row r="15" spans="1:43" ht="21" customHeight="1" thickBot="1">
       <c r="A15" s="9"/>
-      <c r="B15" s="131"/>
-      <c r="C15" s="105"/>
-      <c r="D15" s="161" t="s">
+      <c r="B15" s="142"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="172" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="162"/>
-      <c r="F15" s="116"/>
-      <c r="G15" s="117"/>
-      <c r="H15" s="117"/>
-      <c r="I15" s="118"/>
-      <c r="J15" s="144"/>
-      <c r="K15" s="144"/>
-      <c r="L15" s="118"/>
-      <c r="M15" s="158"/>
-      <c r="N15" s="118"/>
-      <c r="O15" s="118"/>
-      <c r="P15" s="118"/>
-      <c r="Q15" s="118"/>
-      <c r="R15" s="118"/>
-      <c r="S15" s="118"/>
-      <c r="T15" s="119"/>
-      <c r="U15" s="120"/>
-      <c r="V15" s="118"/>
-      <c r="W15" s="118"/>
-      <c r="X15" s="118"/>
-      <c r="Y15" s="118"/>
-      <c r="Z15" s="118"/>
-      <c r="AA15" s="118"/>
-      <c r="AB15" s="118"/>
-      <c r="AC15" s="118"/>
-      <c r="AD15" s="118"/>
-      <c r="AE15" s="118"/>
-      <c r="AF15" s="118"/>
-      <c r="AG15" s="118"/>
-      <c r="AH15" s="118"/>
-      <c r="AI15" s="118"/>
-      <c r="AJ15" s="118"/>
-      <c r="AK15" s="118"/>
+      <c r="E15" s="173"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="100"/>
+      <c r="H15" s="100"/>
+      <c r="I15" s="101"/>
+      <c r="J15" s="122"/>
+      <c r="K15" s="122"/>
+      <c r="L15" s="101"/>
+      <c r="M15" s="136"/>
+      <c r="N15" s="101"/>
+      <c r="O15" s="101"/>
+      <c r="P15" s="101"/>
+      <c r="Q15" s="101"/>
+      <c r="R15" s="101"/>
+      <c r="S15" s="101"/>
+      <c r="T15" s="102"/>
+      <c r="U15" s="103"/>
+      <c r="V15" s="101"/>
+      <c r="W15" s="101"/>
+      <c r="X15" s="101"/>
+      <c r="Y15" s="101"/>
+      <c r="Z15" s="101"/>
+      <c r="AA15" s="101"/>
+      <c r="AB15" s="101"/>
+      <c r="AC15" s="101"/>
+      <c r="AD15" s="101"/>
+      <c r="AE15" s="101"/>
+      <c r="AF15" s="101"/>
+      <c r="AG15" s="101"/>
+      <c r="AH15" s="101"/>
+      <c r="AI15" s="101"/>
+      <c r="AJ15" s="101"/>
+      <c r="AK15" s="101"/>
       <c r="AL15" s="13"/>
       <c r="AM15" s="13"/>
     </row>
     <row r="16" spans="1:43" ht="21" customHeight="1" thickBot="1">
       <c r="A16" s="9"/>
-      <c r="B16" s="131"/>
-      <c r="C16" s="105"/>
-      <c r="D16" s="161" t="s">
+      <c r="B16" s="142"/>
+      <c r="C16" s="89"/>
+      <c r="D16" s="172" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="162"/>
-      <c r="F16" s="116"/>
-      <c r="G16" s="117"/>
-      <c r="H16" s="117"/>
-      <c r="I16" s="118"/>
-      <c r="J16" s="118"/>
-      <c r="K16" s="118"/>
-      <c r="L16" s="149"/>
-      <c r="M16" s="152"/>
-      <c r="N16" s="150"/>
-      <c r="O16" s="118"/>
-      <c r="P16" s="118"/>
-      <c r="Q16" s="118"/>
-      <c r="R16" s="118"/>
-      <c r="S16" s="118"/>
-      <c r="T16" s="119"/>
-      <c r="U16" s="120"/>
-      <c r="V16" s="118"/>
-      <c r="W16" s="118"/>
-      <c r="X16" s="118"/>
-      <c r="Y16" s="118"/>
-      <c r="Z16" s="118"/>
-      <c r="AA16" s="118"/>
-      <c r="AB16" s="118"/>
-      <c r="AC16" s="118"/>
-      <c r="AD16" s="118"/>
-      <c r="AE16" s="118"/>
-      <c r="AF16" s="118"/>
-      <c r="AG16" s="118"/>
-      <c r="AH16" s="118"/>
-      <c r="AI16" s="118"/>
-      <c r="AJ16" s="118"/>
-      <c r="AK16" s="118"/>
+      <c r="E16" s="173"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="101"/>
+      <c r="J16" s="101"/>
+      <c r="K16" s="101"/>
+      <c r="L16" s="127"/>
+      <c r="M16" s="130"/>
+      <c r="N16" s="128"/>
+      <c r="O16" s="101"/>
+      <c r="P16" s="101"/>
+      <c r="Q16" s="101"/>
+      <c r="R16" s="101"/>
+      <c r="S16" s="101"/>
+      <c r="T16" s="102"/>
+      <c r="U16" s="103"/>
+      <c r="V16" s="101"/>
+      <c r="W16" s="101"/>
+      <c r="X16" s="101"/>
+      <c r="Y16" s="101"/>
+      <c r="Z16" s="101"/>
+      <c r="AA16" s="101"/>
+      <c r="AB16" s="101"/>
+      <c r="AC16" s="101"/>
+      <c r="AD16" s="101"/>
+      <c r="AE16" s="101"/>
+      <c r="AF16" s="101"/>
+      <c r="AG16" s="101"/>
+      <c r="AH16" s="101"/>
+      <c r="AI16" s="101"/>
+      <c r="AJ16" s="101"/>
+      <c r="AK16" s="101"/>
       <c r="AL16" s="13"/>
       <c r="AM16" s="13"/>
     </row>
     <row r="17" spans="1:39" ht="21" customHeight="1" thickBot="1">
       <c r="A17" s="9"/>
-      <c r="B17" s="131"/>
-      <c r="C17" s="111"/>
-      <c r="D17" s="164" t="s">
+      <c r="B17" s="142"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="162" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="165"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="145"/>
-      <c r="K17" s="145"/>
-      <c r="L17" s="145"/>
-      <c r="M17" s="151"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="26"/>
-      <c r="T17" s="51"/>
-      <c r="U17" s="43"/>
-      <c r="V17" s="26"/>
-      <c r="W17" s="26"/>
-      <c r="X17" s="26"/>
-      <c r="Y17" s="26"/>
-      <c r="Z17" s="26"/>
-      <c r="AA17" s="26"/>
-      <c r="AB17" s="26"/>
-      <c r="AC17" s="26"/>
-      <c r="AD17" s="26"/>
-      <c r="AE17" s="26"/>
-      <c r="AF17" s="26"/>
-      <c r="AG17" s="26"/>
-      <c r="AH17" s="26"/>
-      <c r="AI17" s="26"/>
-      <c r="AJ17" s="26"/>
-      <c r="AK17" s="26"/>
+      <c r="E17" s="163"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="123"/>
+      <c r="K17" s="123"/>
+      <c r="L17" s="123"/>
+      <c r="M17" s="129"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="47"/>
+      <c r="U17" s="39"/>
+      <c r="V17" s="24"/>
+      <c r="W17" s="24"/>
+      <c r="X17" s="24"/>
+      <c r="Y17" s="24"/>
+      <c r="Z17" s="24"/>
+      <c r="AA17" s="24"/>
+      <c r="AB17" s="24"/>
+      <c r="AC17" s="24"/>
+      <c r="AD17" s="24"/>
+      <c r="AE17" s="24"/>
+      <c r="AF17" s="24"/>
+      <c r="AG17" s="24"/>
+      <c r="AH17" s="24"/>
+      <c r="AI17" s="24"/>
+      <c r="AJ17" s="24"/>
+      <c r="AK17" s="24"/>
       <c r="AL17" s="13"/>
       <c r="AM17" s="13"/>
     </row>
     <row r="18" spans="1:39" ht="21" customHeight="1" thickBot="1">
       <c r="A18" s="9"/>
-      <c r="B18" s="127" t="s">
+      <c r="B18" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="106"/>
-      <c r="D18" s="159" t="s">
+      <c r="C18" s="90"/>
+      <c r="D18" s="171" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="160"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="173"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="28"/>
-      <c r="S18" s="28"/>
-      <c r="T18" s="52"/>
-      <c r="U18" s="28"/>
-      <c r="V18" s="28"/>
-      <c r="W18" s="28"/>
-      <c r="X18" s="28"/>
-      <c r="Y18" s="28"/>
-      <c r="Z18" s="28"/>
-      <c r="AA18" s="28"/>
-      <c r="AB18" s="28"/>
-      <c r="AC18" s="28"/>
-      <c r="AD18" s="28"/>
-      <c r="AE18" s="28"/>
-      <c r="AF18" s="28"/>
-      <c r="AG18" s="28"/>
-      <c r="AH18" s="28"/>
-      <c r="AI18" s="28"/>
-      <c r="AJ18" s="28"/>
-      <c r="AK18" s="28"/>
+      <c r="E18" s="170"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="140"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="48"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="26"/>
+      <c r="W18" s="26"/>
+      <c r="X18" s="26"/>
+      <c r="Y18" s="26"/>
+      <c r="Z18" s="26"/>
+      <c r="AA18" s="26"/>
+      <c r="AB18" s="26"/>
+      <c r="AC18" s="26"/>
+      <c r="AD18" s="26"/>
+      <c r="AE18" s="26"/>
+      <c r="AF18" s="26"/>
+      <c r="AG18" s="26"/>
+      <c r="AH18" s="26"/>
+      <c r="AI18" s="26"/>
+      <c r="AJ18" s="26"/>
+      <c r="AK18" s="26"/>
       <c r="AL18" s="14"/>
       <c r="AM18" s="9"/>
     </row>
     <row r="19" spans="1:39" ht="21" customHeight="1" thickBot="1">
       <c r="A19" s="9"/>
-      <c r="B19" s="127"/>
-      <c r="C19" s="106"/>
-      <c r="D19" s="159" t="s">
+      <c r="B19" s="143"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="169" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="160"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="147"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="148"/>
-      <c r="K19" s="148"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="172"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="173"/>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="28"/>
-      <c r="S19" s="28"/>
-      <c r="T19" s="52"/>
-      <c r="U19" s="146"/>
-      <c r="V19" s="28"/>
-      <c r="W19" s="28"/>
-      <c r="X19" s="114"/>
-      <c r="Y19" s="28"/>
-      <c r="Z19" s="28"/>
-      <c r="AA19" s="28"/>
-      <c r="AB19" s="28"/>
-      <c r="AC19" s="28"/>
-      <c r="AD19" s="28"/>
-      <c r="AE19" s="28"/>
-      <c r="AF19" s="28"/>
-      <c r="AG19" s="28"/>
-      <c r="AH19" s="28"/>
-      <c r="AI19" s="28"/>
-      <c r="AJ19" s="28"/>
-      <c r="AK19" s="28"/>
+      <c r="E19" s="170"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="125"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="126"/>
+      <c r="K19" s="126"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="139"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="140"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="48"/>
+      <c r="U19" s="124"/>
+      <c r="V19" s="26"/>
+      <c r="W19" s="26"/>
+      <c r="X19" s="98"/>
+      <c r="Y19" s="26"/>
+      <c r="Z19" s="26"/>
+      <c r="AA19" s="26"/>
+      <c r="AB19" s="26"/>
+      <c r="AC19" s="26"/>
+      <c r="AD19" s="26"/>
+      <c r="AE19" s="26"/>
+      <c r="AF19" s="26"/>
+      <c r="AG19" s="26"/>
+      <c r="AH19" s="26"/>
+      <c r="AI19" s="26"/>
+      <c r="AJ19" s="26"/>
+      <c r="AK19" s="26"/>
       <c r="AL19" s="14"/>
       <c r="AM19" s="9"/>
     </row>
     <row r="20" spans="1:39" ht="21" customHeight="1" thickBot="1">
       <c r="A20" s="9"/>
-      <c r="B20" s="127"/>
-      <c r="C20" s="106"/>
-      <c r="D20" s="159" t="s">
+      <c r="B20" s="143"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="169" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="160"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="171"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="30"/>
-      <c r="R20" s="30"/>
-      <c r="S20" s="30"/>
-      <c r="T20" s="53"/>
-      <c r="U20" s="44"/>
-      <c r="V20" s="30"/>
-      <c r="W20" s="30"/>
-      <c r="X20" s="40"/>
-      <c r="Y20" s="24"/>
-      <c r="Z20" s="28"/>
-      <c r="AA20" s="24"/>
-      <c r="AB20" s="24"/>
-      <c r="AC20" s="30"/>
-      <c r="AD20" s="30"/>
-      <c r="AE20" s="30"/>
-      <c r="AF20" s="30"/>
-      <c r="AG20" s="30"/>
-      <c r="AH20" s="30"/>
-      <c r="AI20" s="30"/>
-      <c r="AJ20" s="30"/>
-      <c r="AK20" s="30"/>
+      <c r="E20" s="170"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="138"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="49"/>
+      <c r="U20" s="40"/>
+      <c r="V20" s="28"/>
+      <c r="W20" s="28"/>
+      <c r="X20" s="37"/>
+      <c r="Y20" s="22"/>
+      <c r="Z20" s="26"/>
+      <c r="AA20" s="22"/>
+      <c r="AB20" s="22"/>
+      <c r="AC20" s="28"/>
+      <c r="AD20" s="28"/>
+      <c r="AE20" s="28"/>
+      <c r="AF20" s="28"/>
+      <c r="AG20" s="28"/>
+      <c r="AH20" s="28"/>
+      <c r="AI20" s="28"/>
+      <c r="AJ20" s="28"/>
+      <c r="AK20" s="28"/>
       <c r="AL20" s="14"/>
       <c r="AM20" s="9"/>
     </row>
     <row r="21" spans="1:39" ht="21" customHeight="1" thickBot="1">
       <c r="A21" s="9"/>
-      <c r="B21" s="127"/>
-      <c r="C21" s="106"/>
-      <c r="D21" s="159" t="s">
+      <c r="B21" s="143"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="169" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="160"/>
-      <c r="F21" s="80"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="173"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="30"/>
-      <c r="R21" s="30"/>
-      <c r="S21" s="30"/>
-      <c r="T21" s="53"/>
-      <c r="U21" s="44"/>
-      <c r="V21" s="30"/>
-      <c r="W21" s="30"/>
-      <c r="X21" s="30"/>
-      <c r="Y21" s="30"/>
-      <c r="Z21" s="30"/>
-      <c r="AA21" s="30"/>
-      <c r="AB21" s="30"/>
-      <c r="AC21" s="30"/>
-      <c r="AD21" s="30"/>
-      <c r="AE21" s="30"/>
-      <c r="AF21" s="30"/>
-      <c r="AG21" s="30"/>
-      <c r="AH21" s="30"/>
-      <c r="AI21" s="30"/>
-      <c r="AJ21" s="30"/>
-      <c r="AK21" s="30"/>
+      <c r="E21" s="170"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="140"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="28"/>
+      <c r="S21" s="28"/>
+      <c r="T21" s="49"/>
+      <c r="U21" s="40"/>
+      <c r="V21" s="28"/>
+      <c r="W21" s="28"/>
+      <c r="X21" s="28"/>
+      <c r="Y21" s="28"/>
+      <c r="Z21" s="28"/>
+      <c r="AA21" s="28"/>
+      <c r="AB21" s="28"/>
+      <c r="AC21" s="28"/>
+      <c r="AD21" s="28"/>
+      <c r="AE21" s="28"/>
+      <c r="AF21" s="28"/>
+      <c r="AG21" s="28"/>
+      <c r="AH21" s="28"/>
+      <c r="AI21" s="28"/>
+      <c r="AJ21" s="28"/>
+      <c r="AK21" s="28"/>
       <c r="AL21" s="14"/>
       <c r="AM21" s="9"/>
     </row>
     <row r="22" spans="1:39" ht="21" customHeight="1" thickBot="1">
       <c r="A22" s="9"/>
-      <c r="B22" s="127"/>
-      <c r="C22" s="106"/>
-      <c r="D22" s="159" t="s">
+      <c r="B22" s="143"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="169" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="160"/>
-      <c r="F22" s="80"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="173"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="30"/>
-      <c r="S22" s="30"/>
-      <c r="T22" s="53"/>
-      <c r="U22" s="44"/>
-      <c r="V22" s="30"/>
-      <c r="W22" s="30"/>
-      <c r="X22" s="30"/>
-      <c r="Y22" s="30"/>
-      <c r="Z22" s="30"/>
-      <c r="AA22" s="30"/>
-      <c r="AB22" s="30"/>
-      <c r="AC22" s="30"/>
-      <c r="AD22" s="30"/>
-      <c r="AE22" s="30"/>
-      <c r="AF22" s="30"/>
-      <c r="AG22" s="30"/>
-      <c r="AH22" s="30"/>
-      <c r="AI22" s="30"/>
-      <c r="AJ22" s="30"/>
-      <c r="AK22" s="30"/>
+      <c r="E22" s="170"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="140"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="28"/>
+      <c r="R22" s="28"/>
+      <c r="S22" s="28"/>
+      <c r="T22" s="49"/>
+      <c r="U22" s="40"/>
+      <c r="V22" s="28"/>
+      <c r="W22" s="28"/>
+      <c r="X22" s="28"/>
+      <c r="Y22" s="28"/>
+      <c r="Z22" s="28"/>
+      <c r="AA22" s="28"/>
+      <c r="AB22" s="28"/>
+      <c r="AC22" s="28"/>
+      <c r="AD22" s="28"/>
+      <c r="AE22" s="28"/>
+      <c r="AF22" s="28"/>
+      <c r="AG22" s="28"/>
+      <c r="AH22" s="28"/>
+      <c r="AI22" s="28"/>
+      <c r="AJ22" s="28"/>
+      <c r="AK22" s="28"/>
       <c r="AL22" s="14"/>
       <c r="AM22" s="9"/>
     </row>
     <row r="23" spans="1:39" ht="21" customHeight="1" thickBot="1">
       <c r="A23" s="9"/>
-      <c r="B23" s="127"/>
-      <c r="C23" s="106"/>
-      <c r="D23" s="159" t="s">
+      <c r="B23" s="143"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="169" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="160"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="173"/>
-      <c r="N23" s="173"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="30"/>
-      <c r="R23" s="30"/>
-      <c r="S23" s="30"/>
-      <c r="T23" s="53"/>
-      <c r="U23" s="44"/>
-      <c r="V23" s="30"/>
-      <c r="W23" s="30"/>
-      <c r="X23" s="30"/>
-      <c r="Y23" s="30"/>
-      <c r="Z23" s="30"/>
-      <c r="AA23" s="30"/>
-      <c r="AB23" s="30"/>
-      <c r="AC23" s="30"/>
-      <c r="AD23" s="30"/>
-      <c r="AE23" s="30"/>
-      <c r="AF23" s="30"/>
-      <c r="AG23" s="30"/>
-      <c r="AH23" s="30"/>
-      <c r="AI23" s="30"/>
-      <c r="AJ23" s="30"/>
-      <c r="AK23" s="30"/>
+      <c r="E23" s="170"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="140"/>
+      <c r="N23" s="140"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="28"/>
+      <c r="R23" s="28"/>
+      <c r="S23" s="28"/>
+      <c r="T23" s="49"/>
+      <c r="U23" s="40"/>
+      <c r="V23" s="28"/>
+      <c r="W23" s="28"/>
+      <c r="X23" s="28"/>
+      <c r="Y23" s="28"/>
+      <c r="Z23" s="28"/>
+      <c r="AA23" s="28"/>
+      <c r="AB23" s="28"/>
+      <c r="AC23" s="28"/>
+      <c r="AD23" s="28"/>
+      <c r="AE23" s="28"/>
+      <c r="AF23" s="28"/>
+      <c r="AG23" s="28"/>
+      <c r="AH23" s="28"/>
+      <c r="AI23" s="28"/>
+      <c r="AJ23" s="28"/>
+      <c r="AK23" s="28"/>
       <c r="AL23" s="14"/>
       <c r="AM23" s="9"/>
     </row>
     <row r="24" spans="1:39" ht="21" customHeight="1" thickBot="1">
       <c r="A24" s="9"/>
-      <c r="B24" s="127"/>
-      <c r="C24" s="106"/>
-      <c r="D24" s="159" t="s">
+      <c r="B24" s="143"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="169" t="s">
         <v>44</v>
       </c>
-      <c r="E24" s="160"/>
-      <c r="F24" s="81"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="32"/>
-      <c r="N24" s="32"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="173"/>
-      <c r="Q24" s="32"/>
-      <c r="R24" s="32"/>
-      <c r="S24" s="32"/>
-      <c r="T24" s="54"/>
-      <c r="U24" s="45"/>
-      <c r="V24" s="32"/>
-      <c r="W24" s="32"/>
-      <c r="X24" s="32"/>
-      <c r="Y24" s="32"/>
-      <c r="Z24" s="32"/>
-      <c r="AA24" s="32"/>
-      <c r="AB24" s="32"/>
-      <c r="AC24" s="32"/>
-      <c r="AD24" s="32"/>
-      <c r="AE24" s="32"/>
-      <c r="AF24" s="32"/>
-      <c r="AG24" s="32"/>
-      <c r="AH24" s="32"/>
-      <c r="AI24" s="32"/>
-      <c r="AJ24" s="32"/>
-      <c r="AK24" s="32"/>
+      <c r="E24" s="170"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="140"/>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="30"/>
+      <c r="S24" s="30"/>
+      <c r="T24" s="50"/>
+      <c r="U24" s="41"/>
+      <c r="V24" s="30"/>
+      <c r="W24" s="30"/>
+      <c r="X24" s="30"/>
+      <c r="Y24" s="30"/>
+      <c r="Z24" s="30"/>
+      <c r="AA24" s="30"/>
+      <c r="AB24" s="30"/>
+      <c r="AC24" s="30"/>
+      <c r="AD24" s="30"/>
+      <c r="AE24" s="30"/>
+      <c r="AF24" s="30"/>
+      <c r="AG24" s="30"/>
+      <c r="AH24" s="30"/>
+      <c r="AI24" s="30"/>
+      <c r="AJ24" s="30"/>
+      <c r="AK24" s="30"/>
       <c r="AL24" s="14"/>
       <c r="AM24" s="9"/>
     </row>
     <row r="25" spans="1:39" ht="21" customHeight="1" thickBot="1">
       <c r="A25" s="9"/>
-      <c r="B25" s="127"/>
-      <c r="C25" s="112"/>
-      <c r="D25" s="166"/>
-      <c r="E25" s="166"/>
-      <c r="F25" s="121"/>
-      <c r="G25" s="122"/>
-      <c r="H25" s="123"/>
-      <c r="I25" s="124"/>
-      <c r="J25" s="124"/>
-      <c r="K25" s="124"/>
-      <c r="L25" s="124"/>
-      <c r="M25" s="124"/>
-      <c r="N25" s="124"/>
-      <c r="O25" s="124"/>
-      <c r="P25" s="124"/>
-      <c r="Q25" s="124"/>
-      <c r="R25" s="124"/>
-      <c r="S25" s="124"/>
-      <c r="T25" s="125"/>
-      <c r="U25" s="126"/>
-      <c r="V25" s="124"/>
-      <c r="W25" s="124"/>
-      <c r="X25" s="124"/>
-      <c r="Y25" s="124"/>
-      <c r="Z25" s="124"/>
-      <c r="AA25" s="124"/>
-      <c r="AB25" s="124"/>
-      <c r="AC25" s="124"/>
-      <c r="AD25" s="124"/>
-      <c r="AE25" s="124"/>
-      <c r="AF25" s="124"/>
-      <c r="AG25" s="124"/>
-      <c r="AH25" s="124"/>
-      <c r="AI25" s="124"/>
-      <c r="AJ25" s="124"/>
-      <c r="AK25" s="124"/>
+      <c r="B25" s="143"/>
+      <c r="C25" s="96"/>
+      <c r="D25" s="168"/>
+      <c r="E25" s="168"/>
+      <c r="F25" s="104"/>
+      <c r="G25" s="105"/>
+      <c r="H25" s="106"/>
+      <c r="I25" s="107"/>
+      <c r="J25" s="107"/>
+      <c r="K25" s="107"/>
+      <c r="L25" s="107"/>
+      <c r="M25" s="107"/>
+      <c r="N25" s="107"/>
+      <c r="O25" s="107"/>
+      <c r="P25" s="107"/>
+      <c r="Q25" s="107"/>
+      <c r="R25" s="107"/>
+      <c r="S25" s="107"/>
+      <c r="T25" s="108"/>
+      <c r="U25" s="109"/>
+      <c r="V25" s="107"/>
+      <c r="W25" s="107"/>
+      <c r="X25" s="107"/>
+      <c r="Y25" s="107"/>
+      <c r="Z25" s="107"/>
+      <c r="AA25" s="107"/>
+      <c r="AB25" s="107"/>
+      <c r="AC25" s="107"/>
+      <c r="AD25" s="107"/>
+      <c r="AE25" s="107"/>
+      <c r="AF25" s="107"/>
+      <c r="AG25" s="107"/>
+      <c r="AH25" s="107"/>
+      <c r="AI25" s="107"/>
+      <c r="AJ25" s="107"/>
+      <c r="AK25" s="107"/>
       <c r="AL25" s="14"/>
       <c r="AM25" s="9"/>
     </row>
     <row r="26" spans="1:39" ht="21" customHeight="1">
       <c r="A26" s="9"/>
-      <c r="B26" s="129" t="s">
+      <c r="B26" s="144" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="107"/>
-      <c r="D26" s="167"/>
-      <c r="E26" s="168"/>
-      <c r="F26" s="82"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
-      <c r="N26" s="34"/>
-      <c r="O26" s="34"/>
-      <c r="P26" s="34"/>
-      <c r="Q26" s="34"/>
-      <c r="R26" s="34"/>
-      <c r="S26" s="34"/>
-      <c r="T26" s="55"/>
-      <c r="U26" s="46"/>
-      <c r="V26" s="34"/>
-      <c r="W26" s="34"/>
-      <c r="X26" s="34"/>
-      <c r="Y26" s="34"/>
-      <c r="Z26" s="34"/>
-      <c r="AA26" s="34"/>
-      <c r="AB26" s="34"/>
-      <c r="AC26" s="34"/>
-      <c r="AD26" s="34"/>
-      <c r="AE26" s="34"/>
-      <c r="AF26" s="34"/>
-      <c r="AG26" s="34"/>
-      <c r="AH26" s="34"/>
-      <c r="AI26" s="34"/>
-      <c r="AJ26" s="34"/>
-      <c r="AK26" s="34"/>
+      <c r="C26" s="91"/>
+      <c r="D26" s="166"/>
+      <c r="E26" s="167"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="32"/>
+      <c r="R26" s="32"/>
+      <c r="S26" s="32"/>
+      <c r="T26" s="51"/>
+      <c r="U26" s="42"/>
+      <c r="V26" s="32"/>
+      <c r="W26" s="32"/>
+      <c r="X26" s="32"/>
+      <c r="Y26" s="32"/>
+      <c r="Z26" s="32"/>
+      <c r="AA26" s="32"/>
+      <c r="AB26" s="32"/>
+      <c r="AC26" s="32"/>
+      <c r="AD26" s="32"/>
+      <c r="AE26" s="32"/>
+      <c r="AF26" s="32"/>
+      <c r="AG26" s="32"/>
+      <c r="AH26" s="32"/>
+      <c r="AI26" s="32"/>
+      <c r="AJ26" s="32"/>
+      <c r="AK26" s="32"/>
       <c r="AL26" s="9"/>
       <c r="AM26" s="9"/>
     </row>
     <row r="27" spans="1:39" ht="21" customHeight="1">
       <c r="A27" s="9"/>
-      <c r="B27" s="128"/>
-      <c r="C27" s="107"/>
-      <c r="D27" s="167"/>
-      <c r="E27" s="168"/>
-      <c r="F27" s="83"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="36"/>
-      <c r="N27" s="36"/>
-      <c r="O27" s="36"/>
-      <c r="P27" s="36"/>
-      <c r="Q27" s="36"/>
-      <c r="R27" s="36"/>
-      <c r="S27" s="36"/>
-      <c r="T27" s="56"/>
-      <c r="U27" s="47"/>
-      <c r="V27" s="36"/>
-      <c r="W27" s="36"/>
-      <c r="X27" s="36"/>
-      <c r="Y27" s="36"/>
-      <c r="Z27" s="36"/>
-      <c r="AA27" s="36"/>
-      <c r="AB27" s="36"/>
-      <c r="AC27" s="36"/>
-      <c r="AD27" s="36"/>
-      <c r="AE27" s="36"/>
-      <c r="AF27" s="36"/>
-      <c r="AG27" s="36"/>
-      <c r="AH27" s="36"/>
-      <c r="AI27" s="36"/>
-      <c r="AJ27" s="36"/>
-      <c r="AK27" s="36"/>
+      <c r="B27" s="145"/>
+      <c r="C27" s="91"/>
+      <c r="D27" s="166"/>
+      <c r="E27" s="167"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="34"/>
+      <c r="R27" s="34"/>
+      <c r="S27" s="34"/>
+      <c r="T27" s="52"/>
+      <c r="U27" s="43"/>
+      <c r="V27" s="34"/>
+      <c r="W27" s="34"/>
+      <c r="X27" s="34"/>
+      <c r="Y27" s="34"/>
+      <c r="Z27" s="34"/>
+      <c r="AA27" s="34"/>
+      <c r="AB27" s="34"/>
+      <c r="AC27" s="34"/>
+      <c r="AD27" s="34"/>
+      <c r="AE27" s="34"/>
+      <c r="AF27" s="34"/>
+      <c r="AG27" s="34"/>
+      <c r="AH27" s="34"/>
+      <c r="AI27" s="34"/>
+      <c r="AJ27" s="34"/>
+      <c r="AK27" s="34"/>
       <c r="AL27" s="9"/>
       <c r="AM27" s="9"/>
     </row>
     <row r="28" spans="1:39" ht="21" customHeight="1">
       <c r="A28" s="9"/>
-      <c r="B28" s="128"/>
-      <c r="C28" s="107"/>
-      <c r="D28" s="167"/>
-      <c r="E28" s="168"/>
-      <c r="F28" s="83"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="36"/>
-      <c r="N28" s="36"/>
-      <c r="O28" s="36"/>
-      <c r="P28" s="36"/>
-      <c r="Q28" s="36"/>
-      <c r="R28" s="36"/>
-      <c r="S28" s="36"/>
-      <c r="T28" s="56"/>
-      <c r="U28" s="47"/>
-      <c r="V28" s="36"/>
-      <c r="W28" s="36"/>
-      <c r="X28" s="36"/>
-      <c r="Y28" s="36"/>
-      <c r="Z28" s="36"/>
-      <c r="AA28" s="36"/>
-      <c r="AB28" s="36"/>
-      <c r="AC28" s="36"/>
-      <c r="AD28" s="36"/>
-      <c r="AE28" s="36"/>
-      <c r="AF28" s="36"/>
-      <c r="AG28" s="36"/>
-      <c r="AH28" s="36"/>
-      <c r="AI28" s="36"/>
-      <c r="AJ28" s="36"/>
-      <c r="AK28" s="36"/>
+      <c r="B28" s="145"/>
+      <c r="C28" s="91"/>
+      <c r="D28" s="166"/>
+      <c r="E28" s="167"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="34"/>
+      <c r="O28" s="34"/>
+      <c r="P28" s="34"/>
+      <c r="Q28" s="34"/>
+      <c r="R28" s="34"/>
+      <c r="S28" s="34"/>
+      <c r="T28" s="52"/>
+      <c r="U28" s="43"/>
+      <c r="V28" s="34"/>
+      <c r="W28" s="34"/>
+      <c r="X28" s="34"/>
+      <c r="Y28" s="34"/>
+      <c r="Z28" s="34"/>
+      <c r="AA28" s="34"/>
+      <c r="AB28" s="34"/>
+      <c r="AC28" s="34"/>
+      <c r="AD28" s="34"/>
+      <c r="AE28" s="34"/>
+      <c r="AF28" s="34"/>
+      <c r="AG28" s="34"/>
+      <c r="AH28" s="34"/>
+      <c r="AI28" s="34"/>
+      <c r="AJ28" s="34"/>
+      <c r="AK28" s="34"/>
       <c r="AL28" s="9"/>
       <c r="AM28" s="9"/>
     </row>
     <row r="29" spans="1:39" ht="21" customHeight="1" thickBot="1">
       <c r="A29" s="9"/>
-      <c r="B29" s="128"/>
-      <c r="C29" s="113"/>
-      <c r="D29" s="169"/>
-      <c r="E29" s="170"/>
-      <c r="F29" s="84"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="38"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="38"/>
-      <c r="M29" s="38"/>
-      <c r="N29" s="38"/>
-      <c r="O29" s="38"/>
-      <c r="P29" s="38"/>
-      <c r="Q29" s="38"/>
-      <c r="R29" s="38"/>
-      <c r="S29" s="38"/>
-      <c r="T29" s="57"/>
-      <c r="U29" s="48"/>
-      <c r="V29" s="38"/>
-      <c r="W29" s="38"/>
-      <c r="X29" s="38"/>
-      <c r="Y29" s="38"/>
-      <c r="Z29" s="38"/>
-      <c r="AA29" s="38"/>
-      <c r="AB29" s="38"/>
-      <c r="AC29" s="38"/>
-      <c r="AD29" s="38"/>
-      <c r="AE29" s="38"/>
-      <c r="AF29" s="38"/>
-      <c r="AG29" s="38"/>
-      <c r="AH29" s="38"/>
-      <c r="AI29" s="38"/>
-      <c r="AJ29" s="38"/>
-      <c r="AK29" s="38"/>
+      <c r="B29" s="145"/>
+      <c r="C29" s="97"/>
+      <c r="D29" s="164"/>
+      <c r="E29" s="165"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="36"/>
+      <c r="R29" s="36"/>
+      <c r="S29" s="36"/>
+      <c r="T29" s="53"/>
+      <c r="U29" s="44"/>
+      <c r="V29" s="36"/>
+      <c r="W29" s="36"/>
+      <c r="X29" s="36"/>
+      <c r="Y29" s="36"/>
+      <c r="Z29" s="36"/>
+      <c r="AA29" s="36"/>
+      <c r="AB29" s="36"/>
+      <c r="AC29" s="36"/>
+      <c r="AD29" s="36"/>
+      <c r="AE29" s="36"/>
+      <c r="AF29" s="36"/>
+      <c r="AG29" s="36"/>
+      <c r="AH29" s="36"/>
+      <c r="AI29" s="36"/>
+      <c r="AJ29" s="36"/>
+      <c r="AK29" s="36"/>
       <c r="AL29" s="9"/>
       <c r="AM29" s="9"/>
     </row>
@@ -3847,7 +3858,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="D12:E12"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D15:E15"/>
@@ -3868,23 +3878,24 @@
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B10:B17"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="F4:L4"/>
+    <mergeCell ref="M4:W4"/>
+    <mergeCell ref="U7:X7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:P7"/>
     <mergeCell ref="F6:T6"/>
     <mergeCell ref="U6:AK6"/>
     <mergeCell ref="Q7:T7"/>
     <mergeCell ref="AC7:AG7"/>
     <mergeCell ref="AH7:AK7"/>
-    <mergeCell ref="B10:B17"/>
-    <mergeCell ref="B18:B25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="F4:L4"/>
-    <mergeCell ref="M4:W4"/>
     <mergeCell ref="Y7:AB7"/>
-    <mergeCell ref="U7:X7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:P7"/>
+    <mergeCell ref="D12:E12"/>
   </mergeCells>
-  <phoneticPr fontId="27" type="noConversion"/>
+  <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
